--- a/IM-Multi/IM-Multi-Kid_1 Data.xlsx
+++ b/IM-Multi/IM-Multi-Kid_1 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zijinhuang/Documents/Admin/past proj/Lab CDL/CDLData/IM-Multi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63EFD18-C0D0-5D4E-8E65-056D67689FDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8B8CB1-8257-5649-927A-2A9520D70B38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4180" windowWidth="24080" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="460" windowWidth="20720" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IM-Multi-Kid_1 Data" sheetId="1" r:id="rId1"/>
@@ -237,6 +237,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -856,7 +859,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -890,6 +893,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1250,7 +1255,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="topRight" activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1265,6 +1270,7 @@
     <col min="8" max="8" width="24" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -5744,7 +5750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -5779,7 +5785,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>32</v>
       </c>
@@ -5814,7 +5820,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>32</v>
       </c>
@@ -5849,7 +5855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
@@ -5884,7 +5890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -5919,7 +5925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>32</v>
       </c>
@@ -5954,7 +5960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>32</v>
       </c>
@@ -5989,7 +5995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -6024,7 +6030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="30" t="s">
         <v>11</v>
       </c>
@@ -6058,8 +6064,9 @@
       <c r="K137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M137" s="34"/>
+    </row>
+    <row r="138" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="30" t="s">
         <v>11</v>
       </c>
@@ -6093,8 +6100,9 @@
       <c r="K138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M138" s="34"/>
+    </row>
+    <row r="139" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="30" t="s">
         <v>11</v>
       </c>
@@ -6128,8 +6136,9 @@
       <c r="K139">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M139" s="34"/>
+    </row>
+    <row r="140" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="30" t="s">
         <v>11</v>
       </c>
@@ -6163,8 +6172,9 @@
       <c r="K140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M140" s="34"/>
+    </row>
+    <row r="141" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="30" t="s">
         <v>11</v>
       </c>
@@ -6198,8 +6208,9 @@
       <c r="K141">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M141" s="34"/>
+    </row>
+    <row r="142" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="30" t="s">
         <v>11</v>
       </c>
@@ -6233,8 +6244,9 @@
       <c r="K142">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M142" s="34"/>
+    </row>
+    <row r="143" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="30" t="s">
         <v>11</v>
       </c>
@@ -6268,8 +6280,9 @@
       <c r="K143">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M143" s="34"/>
+    </row>
+    <row r="144" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="30" t="s">
         <v>11</v>
       </c>
@@ -6303,8 +6316,9 @@
       <c r="K144">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M144" s="34"/>
+    </row>
+    <row r="145" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="30" t="s">
         <v>11</v>
       </c>
@@ -6338,8 +6352,9 @@
       <c r="K145">
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M145" s="34"/>
+    </row>
+    <row r="146" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="30" t="s">
         <v>11</v>
       </c>
@@ -6373,8 +6388,9 @@
       <c r="K146">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M146" s="34"/>
+    </row>
+    <row r="147" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="30" t="s">
         <v>11</v>
       </c>
@@ -6408,8 +6424,9 @@
       <c r="K147">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M147" s="34"/>
+    </row>
+    <row r="148" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="30" t="s">
         <v>11</v>
       </c>
@@ -6443,8 +6460,9 @@
       <c r="K148">
         <v>12</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M148" s="34"/>
+    </row>
+    <row r="149" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="30" t="s">
         <v>11</v>
       </c>
@@ -6478,8 +6496,9 @@
       <c r="K149">
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M149" s="34"/>
+    </row>
+    <row r="150" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="30" t="s">
         <v>11</v>
       </c>
@@ -6513,8 +6532,9 @@
       <c r="K150">
         <v>14</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M150" s="34"/>
+    </row>
+    <row r="151" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="30" t="s">
         <v>11</v>
       </c>
@@ -6548,8 +6568,9 @@
       <c r="K151">
         <v>15</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M151" s="34"/>
+    </row>
+    <row r="152" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="30" t="s">
         <v>11</v>
       </c>
@@ -6583,8 +6604,9 @@
       <c r="K152">
         <v>16</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M152" s="34"/>
+    </row>
+    <row r="153" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="30" t="s">
         <v>11</v>
       </c>
@@ -6618,8 +6640,9 @@
       <c r="K153">
         <v>17</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M153" s="34"/>
+    </row>
+    <row r="154" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="30" t="s">
         <v>11</v>
       </c>
@@ -6653,8 +6676,9 @@
       <c r="K154">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M154" s="34"/>
+    </row>
+    <row r="155" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="30" t="s">
         <v>11</v>
       </c>
@@ -6688,8 +6712,9 @@
       <c r="K155">
         <v>19</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M155" s="34"/>
+    </row>
+    <row r="156" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="30" t="s">
         <v>11</v>
       </c>
@@ -6723,8 +6748,9 @@
       <c r="K156">
         <v>20</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M156" s="34"/>
+    </row>
+    <row r="157" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="30" t="s">
         <v>11</v>
       </c>
@@ -6758,8 +6784,9 @@
       <c r="K157">
         <v>21</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M157" s="34"/>
+    </row>
+    <row r="158" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="30" t="s">
         <v>11</v>
       </c>
@@ -6793,8 +6820,9 @@
       <c r="K158">
         <v>22</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M158" s="34"/>
+    </row>
+    <row r="159" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="30" t="s">
         <v>11</v>
       </c>
@@ -6828,8 +6856,9 @@
       <c r="K159">
         <v>23</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M159" s="34"/>
+    </row>
+    <row r="160" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="30" t="s">
         <v>11</v>
       </c>
@@ -6863,8 +6892,9 @@
       <c r="K160">
         <v>24</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M160" s="34"/>
+    </row>
+    <row r="161" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="30" t="s">
         <v>11</v>
       </c>
@@ -6898,8 +6928,9 @@
       <c r="K161">
         <v>25</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M161" s="34"/>
+    </row>
+    <row r="162" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="30" t="s">
         <v>11</v>
       </c>
@@ -6933,8 +6964,9 @@
       <c r="K162">
         <v>26</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M162" s="34"/>
+    </row>
+    <row r="163" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="30" t="s">
         <v>11</v>
       </c>
@@ -6968,8 +7000,9 @@
       <c r="K163">
         <v>27</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M163" s="34"/>
+    </row>
+    <row r="164" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="30" t="s">
         <v>11</v>
       </c>
@@ -7000,8 +7033,9 @@
       <c r="K164" s="31">
         <v>28</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M164" s="34"/>
+    </row>
+    <row r="165" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="30" t="s">
         <v>11</v>
       </c>
@@ -7032,8 +7066,9 @@
       <c r="K165" s="31">
         <v>29</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M165" s="34"/>
+    </row>
+    <row r="166" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="30" t="s">
         <v>11</v>
       </c>
@@ -7064,8 +7099,9 @@
       <c r="K166" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M166" s="34"/>
+    </row>
+    <row r="167" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="30" t="s">
         <v>11</v>
       </c>
@@ -7096,8 +7132,9 @@
       <c r="K167" s="31">
         <v>31</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M167" s="34"/>
+    </row>
+    <row r="168" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="30" t="s">
         <v>11</v>
       </c>
@@ -7128,8 +7165,9 @@
       <c r="K168" s="31">
         <v>32</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M168" s="34"/>
+    </row>
+    <row r="169" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="30" t="s">
         <v>11</v>
       </c>
@@ -7160,8 +7198,9 @@
       <c r="K169" s="31">
         <v>33</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M169" s="34"/>
+    </row>
+    <row r="170" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="30" t="s">
         <v>11</v>
       </c>
@@ -7192,8 +7231,9 @@
       <c r="K170" s="31">
         <v>34</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M170" s="34"/>
+    </row>
+    <row r="171" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="30" t="s">
         <v>11</v>
       </c>
@@ -7224,8 +7264,9 @@
       <c r="K171" s="31">
         <v>35</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M171" s="34"/>
+    </row>
+    <row r="172" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="30" t="s">
         <v>11</v>
       </c>
@@ -7256,8 +7297,9 @@
       <c r="K172" s="31">
         <v>36</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M172" s="34"/>
+    </row>
+    <row r="173" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="30" t="s">
         <v>11</v>
       </c>
@@ -7288,8 +7330,9 @@
       <c r="K173" s="31">
         <v>37</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M173" s="34"/>
+    </row>
+    <row r="174" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="30" t="s">
         <v>11</v>
       </c>
@@ -7320,8 +7363,9 @@
       <c r="K174" s="31">
         <v>38</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M174" s="34"/>
+    </row>
+    <row r="175" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="30" t="s">
         <v>11</v>
       </c>
@@ -7352,8 +7396,9 @@
       <c r="K175" s="31">
         <v>39</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M175" s="34"/>
+    </row>
+    <row r="176" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="30" t="s">
         <v>11</v>
       </c>
@@ -7384,8 +7429,9 @@
       <c r="K176" s="31">
         <v>40</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M176" s="34"/>
+    </row>
+    <row r="177" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="30" t="s">
         <v>11</v>
       </c>
@@ -7416,8 +7462,9 @@
       <c r="K177" s="31">
         <v>41</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M177" s="34"/>
+    </row>
+    <row r="178" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="30" t="s">
         <v>11</v>
       </c>
@@ -7448,8 +7495,9 @@
       <c r="K178" s="31">
         <v>42</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M178" s="34"/>
+    </row>
+    <row r="179" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="30" t="s">
         <v>11</v>
       </c>
@@ -7480,8 +7528,9 @@
       <c r="K179" s="31">
         <v>43</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M179" s="34"/>
+    </row>
+    <row r="180" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="30" t="s">
         <v>11</v>
       </c>
@@ -7512,8 +7561,9 @@
       <c r="K180" s="31">
         <v>44</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M180" s="34"/>
+    </row>
+    <row r="181" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="30" t="s">
         <v>11</v>
       </c>
@@ -7544,8 +7594,9 @@
       <c r="K181" s="31">
         <v>45</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M181" s="34"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -7580,7 +7631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -7615,7 +7666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -7650,7 +7701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -7685,7 +7736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -7720,7 +7771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -7755,7 +7806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -7790,7 +7841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -7825,7 +7876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -7860,7 +7911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -7895,7 +7946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -23050,7 +23101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>31</v>
       </c>
@@ -23085,7 +23136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>31</v>
       </c>
@@ -23120,7 +23171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>31</v>
       </c>
@@ -23155,7 +23206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>31</v>
       </c>
@@ -23190,7 +23241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>31</v>
       </c>
@@ -23225,7 +23276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>31</v>
       </c>
@@ -23260,7 +23311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>31</v>
       </c>
@@ -23295,7 +23346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="632" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A632" s="30" t="s">
         <v>16</v>
       </c>
@@ -23329,8 +23380,9 @@
       <c r="K632" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="633" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M632" s="34"/>
+    </row>
+    <row r="633" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A633" s="30" t="s">
         <v>16</v>
       </c>
@@ -23364,8 +23416,9 @@
       <c r="K633" s="28">
         <v>2</v>
       </c>
-    </row>
-    <row r="634" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M633" s="34"/>
+    </row>
+    <row r="634" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A634" s="30" t="s">
         <v>16</v>
       </c>
@@ -23399,8 +23452,9 @@
       <c r="K634" s="28">
         <v>3</v>
       </c>
-    </row>
-    <row r="635" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M634" s="34"/>
+    </row>
+    <row r="635" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A635" s="30" t="s">
         <v>16</v>
       </c>
@@ -23434,8 +23488,9 @@
       <c r="K635" s="28">
         <v>4</v>
       </c>
-    </row>
-    <row r="636" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M635" s="34"/>
+    </row>
+    <row r="636" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A636" s="30" t="s">
         <v>16</v>
       </c>
@@ -23469,8 +23524,9 @@
       <c r="K636" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="637" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M636" s="34"/>
+    </row>
+    <row r="637" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A637" s="30" t="s">
         <v>16</v>
       </c>
@@ -23504,8 +23560,9 @@
       <c r="K637" s="28">
         <v>6</v>
       </c>
-    </row>
-    <row r="638" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M637" s="34"/>
+    </row>
+    <row r="638" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A638" s="30" t="s">
         <v>16</v>
       </c>
@@ -23539,8 +23596,9 @@
       <c r="K638" s="28">
         <v>7</v>
       </c>
-    </row>
-    <row r="639" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M638" s="34"/>
+    </row>
+    <row r="639" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A639" s="30" t="s">
         <v>16</v>
       </c>
@@ -23574,8 +23632,9 @@
       <c r="K639" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="640" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M639" s="34"/>
+    </row>
+    <row r="640" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A640" s="30" t="s">
         <v>16</v>
       </c>
@@ -23609,8 +23668,9 @@
       <c r="K640" s="28">
         <v>9</v>
       </c>
-    </row>
-    <row r="641" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M640" s="34"/>
+    </row>
+    <row r="641" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A641" s="30" t="s">
         <v>16</v>
       </c>
@@ -23644,8 +23704,9 @@
       <c r="K641" s="28">
         <v>10</v>
       </c>
-    </row>
-    <row r="642" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M641" s="34"/>
+    </row>
+    <row r="642" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A642" s="30" t="s">
         <v>16</v>
       </c>
@@ -23679,8 +23740,9 @@
       <c r="K642" s="28">
         <v>11</v>
       </c>
-    </row>
-    <row r="643" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M642" s="34"/>
+    </row>
+    <row r="643" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A643" s="30" t="s">
         <v>16</v>
       </c>
@@ -23714,8 +23776,9 @@
       <c r="K643" s="28">
         <v>12</v>
       </c>
-    </row>
-    <row r="644" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M643" s="34"/>
+    </row>
+    <row r="644" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A644" s="30" t="s">
         <v>16</v>
       </c>
@@ -23749,8 +23812,9 @@
       <c r="K644" s="28">
         <v>13</v>
       </c>
-    </row>
-    <row r="645" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M644" s="34"/>
+    </row>
+    <row r="645" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A645" s="30" t="s">
         <v>16</v>
       </c>
@@ -23784,8 +23848,9 @@
       <c r="K645" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="646" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M645" s="34"/>
+    </row>
+    <row r="646" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A646" s="30" t="s">
         <v>16</v>
       </c>
@@ -23819,8 +23884,9 @@
       <c r="K646" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="647" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M646" s="34"/>
+    </row>
+    <row r="647" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A647" s="30" t="s">
         <v>16</v>
       </c>
@@ -23854,8 +23920,9 @@
       <c r="K647" s="28">
         <v>16</v>
       </c>
-    </row>
-    <row r="648" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M647" s="34"/>
+    </row>
+    <row r="648" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A648" s="30" t="s">
         <v>16</v>
       </c>
@@ -23889,8 +23956,9 @@
       <c r="K648" s="28">
         <v>17</v>
       </c>
-    </row>
-    <row r="649" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M648" s="34"/>
+    </row>
+    <row r="649" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A649" s="30" t="s">
         <v>16</v>
       </c>
@@ -23924,8 +23992,9 @@
       <c r="K649" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="650" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M649" s="34"/>
+    </row>
+    <row r="650" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A650" s="30" t="s">
         <v>16</v>
       </c>
@@ -23959,8 +24028,9 @@
       <c r="K650" s="28">
         <v>19</v>
       </c>
-    </row>
-    <row r="651" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M650" s="34"/>
+    </row>
+    <row r="651" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A651" s="30" t="s">
         <v>16</v>
       </c>
@@ -23994,8 +24064,9 @@
       <c r="K651" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="652" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M651" s="34"/>
+    </row>
+    <row r="652" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A652" s="30" t="s">
         <v>16</v>
       </c>
@@ -24029,8 +24100,9 @@
       <c r="K652" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="653" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M652" s="34"/>
+    </row>
+    <row r="653" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A653" s="30" t="s">
         <v>16</v>
       </c>
@@ -24064,8 +24136,9 @@
       <c r="K653" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="654" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M653" s="34"/>
+    </row>
+    <row r="654" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A654" s="30" t="s">
         <v>16</v>
       </c>
@@ -24099,8 +24172,9 @@
       <c r="K654" s="28">
         <v>23</v>
       </c>
-    </row>
-    <row r="655" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M654" s="34"/>
+    </row>
+    <row r="655" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A655" s="30" t="s">
         <v>16</v>
       </c>
@@ -24134,8 +24208,9 @@
       <c r="K655" s="28">
         <v>24</v>
       </c>
-    </row>
-    <row r="656" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M655" s="34"/>
+    </row>
+    <row r="656" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A656" s="30" t="s">
         <v>16</v>
       </c>
@@ -24169,8 +24244,9 @@
       <c r="K656" s="28">
         <v>25</v>
       </c>
-    </row>
-    <row r="657" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M656" s="34"/>
+    </row>
+    <row r="657" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A657" s="30" t="s">
         <v>16</v>
       </c>
@@ -24204,8 +24280,9 @@
       <c r="K657" s="28">
         <v>26</v>
       </c>
-    </row>
-    <row r="658" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M657" s="34"/>
+    </row>
+    <row r="658" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A658" s="30" t="s">
         <v>16</v>
       </c>
@@ -24239,8 +24316,9 @@
       <c r="K658" s="28">
         <v>27</v>
       </c>
-    </row>
-    <row r="659" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M658" s="34"/>
+    </row>
+    <row r="659" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A659" s="30" t="s">
         <v>16</v>
       </c>
@@ -24274,8 +24352,9 @@
       <c r="K659" s="28">
         <v>28</v>
       </c>
-    </row>
-    <row r="660" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M659" s="34"/>
+    </row>
+    <row r="660" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A660" s="30" t="s">
         <v>16</v>
       </c>
@@ -24309,8 +24388,9 @@
       <c r="K660" s="28">
         <v>29</v>
       </c>
-    </row>
-    <row r="661" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M660" s="34"/>
+    </row>
+    <row r="661" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A661" s="30" t="s">
         <v>16</v>
       </c>
@@ -24344,8 +24424,9 @@
       <c r="K661" s="28">
         <v>30</v>
       </c>
-    </row>
-    <row r="662" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M661" s="34"/>
+    </row>
+    <row r="662" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A662" s="30" t="s">
         <v>16</v>
       </c>
@@ -24379,8 +24460,9 @@
       <c r="K662" s="28">
         <v>31</v>
       </c>
-    </row>
-    <row r="663" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M662" s="34"/>
+    </row>
+    <row r="663" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A663" s="30" t="s">
         <v>16</v>
       </c>
@@ -24414,8 +24496,9 @@
       <c r="K663" s="28">
         <v>32</v>
       </c>
-    </row>
-    <row r="664" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M663" s="34"/>
+    </row>
+    <row r="664" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A664" s="30" t="s">
         <v>16</v>
       </c>
@@ -24449,8 +24532,9 @@
       <c r="K664" s="28">
         <v>33</v>
       </c>
-    </row>
-    <row r="665" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M664" s="34"/>
+    </row>
+    <row r="665" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A665" s="30" t="s">
         <v>16</v>
       </c>
@@ -24472,8 +24556,9 @@
       <c r="K665" s="31">
         <v>34</v>
       </c>
-    </row>
-    <row r="666" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M665" s="34"/>
+    </row>
+    <row r="666" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A666" s="30" t="s">
         <v>16</v>
       </c>
@@ -24495,8 +24580,9 @@
       <c r="K666" s="31">
         <v>35</v>
       </c>
-    </row>
-    <row r="667" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M666" s="34"/>
+    </row>
+    <row r="667" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A667" s="30" t="s">
         <v>16</v>
       </c>
@@ -24518,8 +24604,9 @@
       <c r="K667" s="31">
         <v>36</v>
       </c>
-    </row>
-    <row r="668" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M667" s="34"/>
+    </row>
+    <row r="668" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A668" s="30" t="s">
         <v>16</v>
       </c>
@@ -24541,8 +24628,9 @@
       <c r="K668" s="31">
         <v>37</v>
       </c>
-    </row>
-    <row r="669" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M668" s="34"/>
+    </row>
+    <row r="669" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A669" s="30" t="s">
         <v>16</v>
       </c>
@@ -24564,8 +24652,9 @@
       <c r="K669" s="31">
         <v>38</v>
       </c>
-    </row>
-    <row r="670" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M669" s="34"/>
+    </row>
+    <row r="670" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A670" s="30" t="s">
         <v>16</v>
       </c>
@@ -24587,8 +24676,9 @@
       <c r="K670" s="31">
         <v>39</v>
       </c>
-    </row>
-    <row r="671" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M670" s="34"/>
+    </row>
+    <row r="671" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A671" s="30" t="s">
         <v>16</v>
       </c>
@@ -24610,8 +24700,9 @@
       <c r="K671" s="31">
         <v>40</v>
       </c>
-    </row>
-    <row r="672" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M671" s="34"/>
+    </row>
+    <row r="672" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A672" s="30" t="s">
         <v>16</v>
       </c>
@@ -24633,6 +24724,7 @@
       <c r="K672" s="31">
         <v>41</v>
       </c>
+      <c r="M672" s="34"/>
     </row>
     <row r="673" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A673" s="30" t="s">
@@ -24656,6 +24748,7 @@
       <c r="K673" s="31">
         <v>42</v>
       </c>
+      <c r="M673" s="34"/>
     </row>
     <row r="674" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A674" s="30" t="s">
@@ -24679,6 +24772,7 @@
       <c r="K674" s="31">
         <v>43</v>
       </c>
+      <c r="M674" s="34"/>
     </row>
     <row r="675" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A675" s="30" t="s">
@@ -24702,6 +24796,7 @@
       <c r="K675" s="31">
         <v>44</v>
       </c>
+      <c r="M675" s="34"/>
     </row>
     <row r="676" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A676" s="30" t="s">
@@ -24725,6 +24820,7 @@
       <c r="K676" s="31">
         <v>45</v>
       </c>
+      <c r="M676" s="34"/>
     </row>
     <row r="677" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
@@ -25075,7 +25171,7 @@
       <c r="K686" s="28">
         <v>10</v>
       </c>
-      <c r="M686">
+      <c r="M686" s="33">
         <f t="shared" ref="M686:M691" si="0">AVERAGE(K686,K692)</f>
         <v>13</v>
       </c>
@@ -25118,7 +25214,7 @@
         <f>J687+J690</f>
         <v>9532.0999999999985</v>
       </c>
-      <c r="M687">
+      <c r="M687" s="33">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -25157,7 +25253,7 @@
       <c r="K688" s="28">
         <v>12</v>
       </c>
-      <c r="M688">
+      <c r="M688" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -25196,7 +25292,7 @@
       <c r="K689" s="28">
         <v>13</v>
       </c>
-      <c r="M689">
+      <c r="M689" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -25235,7 +25331,7 @@
       <c r="K690" s="28">
         <v>14</v>
       </c>
-      <c r="M690">
+      <c r="M690" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -25274,7 +25370,7 @@
       <c r="K691" s="28">
         <v>15</v>
       </c>
-      <c r="M691">
+      <c r="M691" s="33">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -25527,7 +25623,7 @@
       <c r="K698" s="28">
         <v>22</v>
       </c>
-      <c r="M698">
+      <c r="M698" s="33">
         <f t="shared" ref="M698:M703" si="1">AVERAGE(K698,K704)</f>
         <v>25</v>
       </c>
@@ -25570,7 +25666,7 @@
         <f>J699+J702</f>
         <v>9132.6</v>
       </c>
-      <c r="M699">
+      <c r="M699" s="33">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -25609,7 +25705,7 @@
       <c r="K700" s="28">
         <v>24</v>
       </c>
-      <c r="M700">
+      <c r="M700" s="33">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -25648,7 +25744,7 @@
       <c r="K701" s="28">
         <v>25</v>
       </c>
-      <c r="M701">
+      <c r="M701" s="33">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -25687,7 +25783,7 @@
       <c r="K702" s="28">
         <v>26</v>
       </c>
-      <c r="M702">
+      <c r="M702" s="33">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -25726,7 +25822,7 @@
       <c r="K703" s="28">
         <v>27</v>
       </c>
-      <c r="M703">
+      <c r="M703" s="33">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -25979,7 +26075,7 @@
       <c r="K710" s="28">
         <v>34</v>
       </c>
-      <c r="M710">
+      <c r="M710" s="33">
         <f t="shared" ref="M710:M715" si="2">AVERAGE(K710,K716)</f>
         <v>37</v>
       </c>
@@ -26022,7 +26118,7 @@
         <f>J711+J714</f>
         <v>10632.8</v>
       </c>
-      <c r="M711">
+      <c r="M711" s="33">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
@@ -26061,7 +26157,7 @@
       <c r="K712" s="28">
         <v>36</v>
       </c>
-      <c r="M712">
+      <c r="M712" s="33">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
@@ -26100,7 +26196,7 @@
       <c r="K713" s="28">
         <v>37</v>
       </c>
-      <c r="M713">
+      <c r="M713" s="33">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -26139,7 +26235,7 @@
       <c r="K714" s="28">
         <v>38</v>
       </c>
-      <c r="M714">
+      <c r="M714" s="33">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
@@ -26178,7 +26274,7 @@
       <c r="K715" s="28">
         <v>39</v>
       </c>
-      <c r="M715">
+      <c r="M715" s="33">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
@@ -26362,7 +26458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>17</v>
       </c>
@@ -26397,7 +26493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="722" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A722" s="30" t="s">
         <v>18</v>
       </c>
@@ -26431,8 +26527,9 @@
       <c r="K722" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="723" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M722" s="34"/>
+    </row>
+    <row r="723" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A723" s="30" t="s">
         <v>18</v>
       </c>
@@ -26466,8 +26563,9 @@
       <c r="K723" s="28">
         <v>2</v>
       </c>
-    </row>
-    <row r="724" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M723" s="34"/>
+    </row>
+    <row r="724" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A724" s="30" t="s">
         <v>18</v>
       </c>
@@ -26501,8 +26599,9 @@
       <c r="K724" s="28">
         <v>3</v>
       </c>
-    </row>
-    <row r="725" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M724" s="34"/>
+    </row>
+    <row r="725" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A725" s="30" t="s">
         <v>18</v>
       </c>
@@ -26536,8 +26635,9 @@
       <c r="K725" s="28">
         <v>4</v>
       </c>
-    </row>
-    <row r="726" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M725" s="34"/>
+    </row>
+    <row r="726" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A726" s="30" t="s">
         <v>18</v>
       </c>
@@ -26571,8 +26671,9 @@
       <c r="K726" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="727" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M726" s="34"/>
+    </row>
+    <row r="727" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A727" s="30" t="s">
         <v>18</v>
       </c>
@@ -26606,8 +26707,9 @@
       <c r="K727" s="28">
         <v>6</v>
       </c>
-    </row>
-    <row r="728" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M727" s="34"/>
+    </row>
+    <row r="728" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A728" s="30" t="s">
         <v>18</v>
       </c>
@@ -26641,8 +26743,9 @@
       <c r="K728" s="28">
         <v>7</v>
       </c>
-    </row>
-    <row r="729" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M728" s="34"/>
+    </row>
+    <row r="729" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A729" s="30" t="s">
         <v>18</v>
       </c>
@@ -26676,8 +26779,9 @@
       <c r="K729" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="730" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M729" s="34"/>
+    </row>
+    <row r="730" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A730" s="30" t="s">
         <v>18</v>
       </c>
@@ -26711,8 +26815,9 @@
       <c r="K730" s="28">
         <v>9</v>
       </c>
-    </row>
-    <row r="731" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M730" s="34"/>
+    </row>
+    <row r="731" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A731" s="30" t="s">
         <v>18</v>
       </c>
@@ -26746,8 +26851,9 @@
       <c r="K731" s="28">
         <v>10</v>
       </c>
-    </row>
-    <row r="732" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M731" s="34"/>
+    </row>
+    <row r="732" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A732" s="30" t="s">
         <v>18</v>
       </c>
@@ -26781,8 +26887,9 @@
       <c r="K732" s="28">
         <v>11</v>
       </c>
-    </row>
-    <row r="733" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M732" s="34"/>
+    </row>
+    <row r="733" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A733" s="30" t="s">
         <v>18</v>
       </c>
@@ -26816,8 +26923,9 @@
       <c r="K733" s="28">
         <v>12</v>
       </c>
-    </row>
-    <row r="734" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M733" s="34"/>
+    </row>
+    <row r="734" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A734" s="30" t="s">
         <v>18</v>
       </c>
@@ -26851,8 +26959,9 @@
       <c r="K734" s="28">
         <v>13</v>
       </c>
-    </row>
-    <row r="735" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M734" s="34"/>
+    </row>
+    <row r="735" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A735" s="30" t="s">
         <v>18</v>
       </c>
@@ -26886,8 +26995,9 @@
       <c r="K735" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="736" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M735" s="34"/>
+    </row>
+    <row r="736" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A736" s="30" t="s">
         <v>18</v>
       </c>
@@ -26921,8 +27031,9 @@
       <c r="K736" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="737" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M736" s="34"/>
+    </row>
+    <row r="737" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A737" s="30" t="s">
         <v>18</v>
       </c>
@@ -26956,8 +27067,9 @@
       <c r="K737" s="28">
         <v>16</v>
       </c>
-    </row>
-    <row r="738" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M737" s="34"/>
+    </row>
+    <row r="738" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A738" s="30" t="s">
         <v>18</v>
       </c>
@@ -26991,8 +27103,9 @@
       <c r="K738" s="28">
         <v>17</v>
       </c>
-    </row>
-    <row r="739" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M738" s="34"/>
+    </row>
+    <row r="739" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A739" s="30" t="s">
         <v>18</v>
       </c>
@@ -27026,8 +27139,9 @@
       <c r="K739" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="740" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M739" s="34"/>
+    </row>
+    <row r="740" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A740" s="30" t="s">
         <v>18</v>
       </c>
@@ -27061,8 +27175,9 @@
       <c r="K740" s="28">
         <v>19</v>
       </c>
-    </row>
-    <row r="741" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M740" s="34"/>
+    </row>
+    <row r="741" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A741" s="30" t="s">
         <v>18</v>
       </c>
@@ -27096,8 +27211,9 @@
       <c r="K741" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="742" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M741" s="34"/>
+    </row>
+    <row r="742" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A742" s="30" t="s">
         <v>18</v>
       </c>
@@ -27131,8 +27247,9 @@
       <c r="K742" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="743" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M742" s="34"/>
+    </row>
+    <row r="743" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A743" s="30" t="s">
         <v>18</v>
       </c>
@@ -27166,8 +27283,9 @@
       <c r="K743" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="744" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M743" s="34"/>
+    </row>
+    <row r="744" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A744" s="30" t="s">
         <v>18</v>
       </c>
@@ -27201,8 +27319,9 @@
       <c r="K744" s="28">
         <v>23</v>
       </c>
-    </row>
-    <row r="745" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M744" s="34"/>
+    </row>
+    <row r="745" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A745" s="30" t="s">
         <v>18</v>
       </c>
@@ -27236,8 +27355,9 @@
       <c r="K745" s="28">
         <v>24</v>
       </c>
-    </row>
-    <row r="746" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M745" s="34"/>
+    </row>
+    <row r="746" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A746" s="30" t="s">
         <v>18</v>
       </c>
@@ -27271,8 +27391,9 @@
       <c r="K746" s="28">
         <v>25</v>
       </c>
-    </row>
-    <row r="747" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M746" s="34"/>
+    </row>
+    <row r="747" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A747" s="30" t="s">
         <v>18</v>
       </c>
@@ -27306,8 +27427,9 @@
       <c r="K747" s="28">
         <v>26</v>
       </c>
-    </row>
-    <row r="748" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M747" s="34"/>
+    </row>
+    <row r="748" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A748" s="30" t="s">
         <v>18</v>
       </c>
@@ -27341,8 +27463,9 @@
       <c r="K748" s="28">
         <v>27</v>
       </c>
-    </row>
-    <row r="749" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M748" s="34"/>
+    </row>
+    <row r="749" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A749" s="30" t="s">
         <v>18</v>
       </c>
@@ -27376,8 +27499,9 @@
       <c r="K749" s="28">
         <v>28</v>
       </c>
-    </row>
-    <row r="750" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M749" s="34"/>
+    </row>
+    <row r="750" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A750" s="30" t="s">
         <v>18</v>
       </c>
@@ -27411,8 +27535,9 @@
       <c r="K750" s="28">
         <v>29</v>
       </c>
-    </row>
-    <row r="751" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M750" s="34"/>
+    </row>
+    <row r="751" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A751" s="30" t="s">
         <v>18</v>
       </c>
@@ -27446,8 +27571,9 @@
       <c r="K751" s="28">
         <v>30</v>
       </c>
-    </row>
-    <row r="752" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M751" s="34"/>
+    </row>
+    <row r="752" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A752" s="30" t="s">
         <v>18</v>
       </c>
@@ -27481,8 +27607,9 @@
       <c r="K752" s="28">
         <v>31</v>
       </c>
-    </row>
-    <row r="753" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M752" s="34"/>
+    </row>
+    <row r="753" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A753" s="30" t="s">
         <v>18</v>
       </c>
@@ -27516,8 +27643,9 @@
       <c r="K753" s="28">
         <v>32</v>
       </c>
-    </row>
-    <row r="754" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M753" s="34"/>
+    </row>
+    <row r="754" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A754" s="30" t="s">
         <v>18</v>
       </c>
@@ -27551,8 +27679,9 @@
       <c r="K754" s="28">
         <v>33</v>
       </c>
-    </row>
-    <row r="755" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M754" s="34"/>
+    </row>
+    <row r="755" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A755" s="30" t="s">
         <v>18</v>
       </c>
@@ -27586,8 +27715,9 @@
       <c r="K755" s="28">
         <v>34</v>
       </c>
-    </row>
-    <row r="756" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M755" s="34"/>
+    </row>
+    <row r="756" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A756" s="30" t="s">
         <v>18</v>
       </c>
@@ -27621,8 +27751,9 @@
       <c r="K756" s="28">
         <v>35</v>
       </c>
-    </row>
-    <row r="757" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M756" s="34"/>
+    </row>
+    <row r="757" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A757" s="30" t="s">
         <v>18</v>
       </c>
@@ -27656,8 +27787,9 @@
       <c r="K757" s="28">
         <v>36</v>
       </c>
-    </row>
-    <row r="758" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M757" s="34"/>
+    </row>
+    <row r="758" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A758" s="30" t="s">
         <v>18</v>
       </c>
@@ -27691,8 +27823,9 @@
       <c r="K758" s="28">
         <v>37</v>
       </c>
-    </row>
-    <row r="759" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M758" s="34"/>
+    </row>
+    <row r="759" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A759" s="30" t="s">
         <v>18</v>
       </c>
@@ -27726,8 +27859,9 @@
       <c r="K759" s="28">
         <v>38</v>
       </c>
-    </row>
-    <row r="760" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M759" s="34"/>
+    </row>
+    <row r="760" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A760" s="30" t="s">
         <v>18</v>
       </c>
@@ -27761,8 +27895,9 @@
       <c r="K760" s="28">
         <v>39</v>
       </c>
-    </row>
-    <row r="761" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M760" s="34"/>
+    </row>
+    <row r="761" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A761" s="30" t="s">
         <v>18</v>
       </c>
@@ -27796,8 +27931,9 @@
       <c r="K761" s="28">
         <v>40</v>
       </c>
-    </row>
-    <row r="762" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M761" s="34"/>
+    </row>
+    <row r="762" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A762" s="30" t="s">
         <v>18</v>
       </c>
@@ -27831,8 +27967,9 @@
       <c r="K762" s="28">
         <v>41</v>
       </c>
-    </row>
-    <row r="763" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M762" s="34"/>
+    </row>
+    <row r="763" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A763" s="30" t="s">
         <v>18</v>
       </c>
@@ -27866,8 +28003,9 @@
       <c r="K763" s="28">
         <v>42</v>
       </c>
-    </row>
-    <row r="764" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M763" s="34"/>
+    </row>
+    <row r="764" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A764" s="30" t="s">
         <v>18</v>
       </c>
@@ -27901,8 +28039,9 @@
       <c r="K764" s="28">
         <v>43</v>
       </c>
-    </row>
-    <row r="765" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M764" s="34"/>
+    </row>
+    <row r="765" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A765" s="30" t="s">
         <v>18</v>
       </c>
@@ -27936,8 +28075,9 @@
       <c r="K765" s="28">
         <v>44</v>
       </c>
-    </row>
-    <row r="766" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M765" s="34"/>
+    </row>
+    <row r="766" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A766" s="30" t="s">
         <v>18</v>
       </c>
@@ -27971,8 +28111,9 @@
       <c r="K766" s="28">
         <v>45</v>
       </c>
-    </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M766" s="34"/>
+    </row>
+    <row r="767" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>33</v>
       </c>
@@ -28007,7 +28148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>33</v>
       </c>
@@ -34621,7 +34762,7 @@
       <c r="K956" s="28">
         <v>10</v>
       </c>
-      <c r="M956">
+      <c r="M956" s="33">
         <f>AVERAGE(K956,K962)</f>
         <v>13</v>
       </c>
@@ -34664,7 +34805,7 @@
         <f>J957+J960</f>
         <v>11432.5</v>
       </c>
-      <c r="M957">
+      <c r="M957" s="33">
         <f>AVERAGE(K957,K963)</f>
         <v>14</v>
       </c>
@@ -34703,7 +34844,7 @@
       <c r="K958" s="28">
         <v>12</v>
       </c>
-      <c r="M958">
+      <c r="M958" s="33">
         <f t="shared" ref="M958:M960" si="3">AVERAGE(K958,K964)</f>
         <v>15</v>
       </c>
@@ -34742,7 +34883,7 @@
       <c r="K959" s="28">
         <v>13</v>
       </c>
-      <c r="M959">
+      <c r="M959" s="33">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -34781,7 +34922,7 @@
       <c r="K960" s="28">
         <v>14</v>
       </c>
-      <c r="M960">
+      <c r="M960" s="33">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -34820,7 +34961,7 @@
       <c r="K961" s="28">
         <v>15</v>
       </c>
-      <c r="M961">
+      <c r="M961" s="33">
         <f>AVERAGE(K961,K967)</f>
         <v>18</v>
       </c>
@@ -35073,7 +35214,7 @@
       <c r="K968" s="28">
         <v>22</v>
       </c>
-      <c r="M968">
+      <c r="M968" s="33">
         <f>AVERAGE(K968,K974)</f>
         <v>25</v>
       </c>
@@ -35116,7 +35257,7 @@
         <f t="shared" ref="L969" si="4">J969+J972</f>
         <v>11599</v>
       </c>
-      <c r="M969">
+      <c r="M969" s="33">
         <f>AVERAGE(K969,K975)</f>
         <v>26</v>
       </c>
@@ -35155,7 +35296,7 @@
       <c r="K970" s="28">
         <v>24</v>
       </c>
-      <c r="M970">
+      <c r="M970" s="33">
         <f t="shared" ref="M970:M972" si="5">AVERAGE(K970,K976)</f>
         <v>27</v>
       </c>
@@ -35194,7 +35335,7 @@
       <c r="K971" s="28">
         <v>25</v>
       </c>
-      <c r="M971">
+      <c r="M971" s="33">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
@@ -35233,7 +35374,7 @@
       <c r="K972" s="28">
         <v>26</v>
       </c>
-      <c r="M972">
+      <c r="M972" s="33">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
@@ -35272,7 +35413,7 @@
       <c r="K973" s="28">
         <v>27</v>
       </c>
-      <c r="M973">
+      <c r="M973" s="33">
         <f>AVERAGE(K973,K979)</f>
         <v>30</v>
       </c>
@@ -35525,7 +35666,7 @@
       <c r="K980" s="28">
         <v>34</v>
       </c>
-      <c r="M980">
+      <c r="M980" s="33">
         <f>AVERAGE(K980,K986)</f>
         <v>37</v>
       </c>
@@ -35568,7 +35709,7 @@
         <f t="shared" ref="L981" si="7">J981+J984</f>
         <v>11699.199999999999</v>
       </c>
-      <c r="M981">
+      <c r="M981" s="33">
         <f>AVERAGE(K981,K987)</f>
         <v>38</v>
       </c>
@@ -35607,7 +35748,7 @@
       <c r="K982" s="28">
         <v>36</v>
       </c>
-      <c r="M982">
+      <c r="M982" s="33">
         <f t="shared" ref="M982:M984" si="8">AVERAGE(K982,K988)</f>
         <v>39</v>
       </c>
@@ -35646,7 +35787,7 @@
       <c r="K983" s="28">
         <v>37</v>
       </c>
-      <c r="M983">
+      <c r="M983" s="33">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
@@ -35685,7 +35826,7 @@
       <c r="K984" s="28">
         <v>38</v>
       </c>
-      <c r="M984">
+      <c r="M984" s="33">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
@@ -35724,7 +35865,7 @@
       <c r="K985" s="28">
         <v>39</v>
       </c>
-      <c r="M985">
+      <c r="M985" s="33">
         <f>AVERAGE(K985,K991)</f>
         <v>42</v>
       </c>
@@ -40737,7 +40878,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CB1096"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
